--- a/biology/Botanique/Rafinesquia_neomexicana/Rafinesquia_neomexicana.xlsx
+++ b/biology/Botanique/Rafinesquia_neomexicana/Rafinesquia_neomexicana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rafinesquia neomexicana est une espèce de plantes à fleurs de la famille des Asteraceae, originaire du continent nord-américain.
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante herbacée de 15 à 50 cm de haut, aux tiges lisses et peu pourvues de feuilles, a une couleur générale tirant souvent sur le gris et produit un latex de couleur laiteuse. Les feuilles proches de la base mesurent entre 5 et 20 cm de long et sont divisées en lobes étroits ; celles situées plus haut sur la tige sont nettement plus petites[1].
-Appareil reproducteur
-La floraison a lieu entre mars et mai. Les bractées sont courtes et ont une extrémité très fine ; les plus externes ont tendance à s'enrouler vers l'extérieur. Les inflorescences sont des capitules blancs, souvent rayés de rose-violacé sur le côté externe, et situés à l'extrémité des rares ramifications de la tige florale. Chaque capitule a un diamètre qui varie de 2,5 à 4 cm. Les fleurons sont tous ligulés et les plus externes, plus longs, mesurent jusqu'à 1,5 cm de longueur[1]. chaque ligule est indenté et forme à son extrémité 5 languettes.
-Les fruits sont des akènes prolongés par une fine hampe rigide garnie de poils plumeux à son extrémité.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante herbacée de 15 à 50 cm de haut, aux tiges lisses et peu pourvues de feuilles, a une couleur générale tirant souvent sur le gris et produit un latex de couleur laiteuse. Les feuilles proches de la base mesurent entre 5 et 20 cm de long et sont divisées en lobes étroits ; celles situées plus haut sur la tige sont nettement plus petites.
 </t>
         </is>
       </c>
@@ -543,13 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description morphologique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Son aire de répartition s'étend, au nord, du sud de la Californie et de l'Utah jusqu'à l'ouest du Texas aux États-Unis et au sud jusqu'au Mexique.
-Cette plante pousse dans les zones désertiques caillouteuses ou sablonneuses, souvent en prenant appui sur un buisson ou un bloc de rocher.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre mars et mai. Les bractées sont courtes et ont une extrémité très fine ; les plus externes ont tendance à s'enrouler vers l'extérieur. Les inflorescences sont des capitules blancs, souvent rayés de rose-violacé sur le côté externe, et situés à l'extrémité des rares ramifications de la tige florale. Chaque capitule a un diamètre qui varie de 2,5 à 4 cm. Les fleurons sont tous ligulés et les plus externes, plus longs, mesurent jusqu'à 1,5 cm de longueur. chaque ligule est indenté et forme à son extrémité 5 languettes.
+Les fruits sont des akènes prolongés par une fine hampe rigide garnie de poils plumeux à son extrémité.
 </t>
         </is>
       </c>
@@ -575,13 +595,52 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son aire de répartition s'étend, au nord, du sud de la Californie et de l'Utah jusqu'à l'ouest du Texas aux États-Unis et au sud jusqu'au Mexique.
+Cette plante pousse dans les zones désertiques caillouteuses ou sablonneuses, souvent en prenant appui sur un buisson ou un bloc de rocher.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rafinesquia_neomexicana</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rafinesquia_neomexicana</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Étymologie
-Le nom de genre Rafinesquia lui a été attribué par Thomas Nuttall en l'honneur de Constantine Samuel Rafinesque, naturaliste et archéologue américain. Le terme neomexicana désigne l'un des états où cette plante vit, à savoir le Nouveau-Mexique.
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Rafinesquia lui a été attribué par Thomas Nuttall en l'honneur de Constantine Samuel Rafinesque, naturaliste et archéologue américain. Le terme neomexicana désigne l'un des états où cette plante vit, à savoir le Nouveau-Mexique.
 </t>
         </is>
       </c>
